--- a/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
+++ b/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1071"/>
+  <dimension ref="A1:N1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59667,22 +59667,22 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2332</v>
+        <v>2357</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>19-Jan-05</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr"/>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>(name of company)</t>
+          <t>Qval 100</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
@@ -59692,12 +59692,12 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>(UNDERLINED: NEW ACTIVE INGREDIENTS)</t>
+          <t>BECLOMETASONE DIPROPIONATE</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Note</t>
+          <t>Addition of a pediatric dosage for bronchial asthma</t>
         </is>
       </c>
       <c r="I1062" t="b">
@@ -59709,34 +59709,34 @@
       <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>RXCUI:748794</t>
+          <t>CHEBI:3001</t>
         </is>
       </c>
       <c r="M1062" t="inlineStr">
         <is>
-          <t>inert ingredients 1 MG</t>
+          <t>beclomethasone</t>
         </is>
       </c>
       <c r="N1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Anti- infective</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>19-Jan-05</t>
+          <t>23-Apr-04</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr"/>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Qval 100</t>
+          <t>15\nMeropen for intravenous drip infusion 0.25g</t>
         </is>
       </c>
       <c r="F1063" t="inlineStr">
@@ -59746,12 +59746,12 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>BECLOMETASONE DIPROPIONATE</t>
+          <t>MEROPENEM TRIHYDRATE</t>
         </is>
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Addition of a pediatric dosage for bronchial asthma</t>
+          <t>A carbapenem antibacterial agent. Addition of indications for purulent meningitis and dosage for pediatric patients.</t>
         </is>
       </c>
       <c r="I1063" t="b">
@@ -59763,19 +59763,19 @@
       <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>CHEBI:3001</t>
+          <t>CHEBI:6770</t>
         </is>
       </c>
       <c r="M1063" t="inlineStr">
         <is>
-          <t>beclomethasone</t>
+          <t>CHEMBL4175954</t>
         </is>
       </c>
       <c r="N1063" t="inlineStr"/>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
@@ -59784,13 +59784,13 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>23-Apr-04</t>
+          <t>16-Sep-04</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr"/>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>15\nMeropen for intravenous drip infusion 0.25g</t>
+          <t>Maxipime for injection 0.5g</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
@@ -59800,12 +59800,12 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>MEROPENEM TRIHYDRATE</t>
+          <t>CEFEPIME DIHYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>A carbapenem antibacterial agent. Addition of indications for purulent meningitis and dosage for pediatric patients.</t>
+          <t>Addition of indications on febrile neutropenia</t>
         </is>
       </c>
       <c r="I1064" t="b">
@@ -59817,34 +59817,34 @@
       <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>CHEBI:6770</t>
+          <t>CHEBI:31368</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr">
         <is>
-          <t>CHEMBL4175954</t>
+          <t>cefepime hydrochloride</t>
         </is>
       </c>
       <c r="N1064" t="inlineStr"/>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2369</v>
+        <v>2381</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Anti- infective</t>
+          <t>Oncology drug</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>16-Sep-04</t>
+          <t>31-May-04</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr"/>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Maxipime for injection 0.5g</t>
+          <t>26\nBleo</t>
         </is>
       </c>
       <c r="F1065" t="inlineStr">
@@ -59854,12 +59854,12 @@
       </c>
       <c r="G1065" t="inlineStr">
         <is>
-          <t>CEFEPIME DIHYDROCHLORIDE</t>
+          <t>BLEOMYCIN HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Addition of indications on febrile neutropenia</t>
+          <t>Addition of indications for germ cell tumors and dosage regimen</t>
         </is>
       </c>
       <c r="I1065" t="b">
@@ -59871,19 +59871,19 @@
       <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>CHEBI:31368</t>
+          <t>PUBCHEM.COMPOUND:20832750</t>
         </is>
       </c>
       <c r="M1065" t="inlineStr">
         <is>
-          <t>cefepime hydrochloride</t>
+          <t>Bleomycin hydrochloride</t>
         </is>
       </c>
       <c r="N1065" t="inlineStr"/>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2381</v>
+        <v>2403</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
@@ -59892,13 +59892,13 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>31-May-04</t>
+          <t>19-Jan-05</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr"/>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>26\nBleo</t>
+          <t>Aredia 30mg</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
@@ -59908,12 +59908,12 @@
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>BLEOMYCIN HYDROCHLORIDE</t>
+          <t>PAMIDRONATE DISODIUM</t>
         </is>
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Addition of indications for germ cell tumors and dosage regimen</t>
+          <t>&lt;Combined therapy with anticancer agents&gt;</t>
         </is>
       </c>
       <c r="I1066" t="b">
@@ -59925,19 +59925,19 @@
       <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:20832750</t>
+          <t>UNII:C7S8VWP5DH</t>
         </is>
       </c>
       <c r="M1066" t="inlineStr">
         <is>
-          <t>Bleomycin hydrochloride</t>
+          <t>PAMIDRONATE DISODIUM</t>
         </is>
       </c>
       <c r="N1066" t="inlineStr"/>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2403</v>
+        <v>2423</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
@@ -59946,13 +59946,13 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>19-Jan-05</t>
+          <t>14-Feb-05</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr"/>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>Aredia 30mg</t>
+          <t>Uromitexan 100mg</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
@@ -59962,12 +59962,12 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>PAMIDRONATE DISODIUM</t>
+          <t>MESNA</t>
         </is>
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>&lt;Combined therapy with anticancer agents&gt;</t>
+          <t>In line with the addition to the indications of ifosfamide for malignant bone and soft tissue tumors, an addition to dosage for inhibiting the development of urological impairment associated\nwith administration of said ifosfamide.</t>
         </is>
       </c>
       <c r="I1067" t="b">
@@ -59979,19 +59979,19 @@
       <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>UNII:C7S8VWP5DH</t>
+          <t>CHEBI:31824</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr">
         <is>
-          <t>PAMIDRONATE DISODIUM</t>
+          <t>Mesna</t>
         </is>
       </c>
       <c r="N1067" t="inlineStr"/>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2423</v>
+        <v>2431</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
@@ -60006,7 +60006,7 @@
       <c r="D1068" t="inlineStr"/>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Uromitexan 100mg</t>
+          <t>5-FU injection 250 Kyowa</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
@@ -60016,12 +60016,12 @@
       </c>
       <c r="G1068" t="inlineStr">
         <is>
-          <t>MESNA</t>
+          <t>5-FLUOROURACIL</t>
         </is>
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>In line with the addition to the indications of ifosfamide for malignant bone and soft tissue tumors, an addition to dosage for inhibiting the development of urological impairment associated\nwith administration of said ifosfamide.</t>
+          <t>&lt;Combined therapy with anticancer agents&gt;</t>
         </is>
       </c>
       <c r="I1068" t="b">
@@ -60033,19 +60033,19 @@
       <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>CHEBI:31824</t>
+          <t>CHEBI:46345</t>
         </is>
       </c>
       <c r="M1068" t="inlineStr">
         <is>
-          <t>Mesna</t>
+          <t>Fluorouracil</t>
         </is>
       </c>
       <c r="N1068" t="inlineStr"/>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
@@ -60060,7 +60060,7 @@
       <c r="D1069" t="inlineStr"/>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>5-FU injection 250 Kyowa</t>
+          <t>42\nNatulan</t>
         </is>
       </c>
       <c r="F1069" t="inlineStr">
@@ -60070,12 +60070,12 @@
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>5-FLUOROURACIL</t>
+          <t>PROCARBAZINE HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>&lt;Combined therapy with anticancer agents&gt;</t>
+          <t>Addition to indications of combined therapy with other anticancer agents for glioma which possesses components of malignant astrocytoma\nand oligodendroglioma and to dosage regimen.</t>
         </is>
       </c>
       <c r="I1069" t="b">
@@ -60087,34 +60087,34 @@
       <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>CHEBI:46345</t>
+          <t>CHEBI:71417</t>
         </is>
       </c>
       <c r="M1069" t="inlineStr">
         <is>
-          <t>Fluorouracil</t>
+          <t>Procarbazine</t>
         </is>
       </c>
       <c r="N1069" t="inlineStr"/>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2439</v>
+        <v>2445</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Oncology drug</t>
+          <t>AIDS</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>14-Feb-05</t>
+          <t>24-Dec-04</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr"/>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>42\nNatulan</t>
+          <t>47\nZiagen Tablets</t>
         </is>
       </c>
       <c r="F1070" t="inlineStr">
@@ -60124,12 +60124,12 @@
       </c>
       <c r="G1070" t="inlineStr">
         <is>
-          <t>PROCARBAZINE HYDROCHLORIDE</t>
+          <t>ABACAVIR SULFATE</t>
         </is>
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Addition to indications of combined therapy with other anticancer agents for glioma which possesses components of malignant astrocytoma\nand oligodendroglioma and to dosage regimen.</t>
+          <t>Addition to dosage regimen of \u201ddaily 600mg, once a day\u201c to the current ones of \u201d300mg per\ndose, twice a day.\u201d</t>
         </is>
       </c>
       <c r="I1070" t="b">
@@ -60141,69 +60141,15 @@
       <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>CHEBI:71417</t>
+          <t>CHEBI:2361</t>
         </is>
       </c>
       <c r="M1070" t="inlineStr">
         <is>
-          <t>Procarbazine</t>
+          <t>abacavir sulfate</t>
         </is>
       </c>
       <c r="N1070" t="inlineStr"/>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="n">
-        <v>2445</v>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>AIDS</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr">
-        <is>
-          <t>24-Dec-04</t>
-        </is>
-      </c>
-      <c r="D1071" t="inlineStr"/>
-      <c r="E1071" t="inlineStr">
-        <is>
-          <t>47\nZiagen Tablets</t>
-        </is>
-      </c>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>Supplemental\nChange</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>ABACAVIR SULFATE</t>
-        </is>
-      </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>Addition to dosage regimen of \u201ddaily 600mg, once a day\u201c to the current ones of \u201d300mg per\ndose, twice a day.\u201d</t>
-        </is>
-      </c>
-      <c r="I1071" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1071" t="b">
-        <v>1</v>
-      </c>
-      <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr">
-        <is>
-          <t>CHEBI:2361</t>
-        </is>
-      </c>
-      <c r="M1071" t="inlineStr">
-        <is>
-          <t>abacavir sulfate</t>
-        </is>
-      </c>
-      <c r="N1071" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
+++ b/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
@@ -1340,7 +1340,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ensitrelvir</t>
+          <t>Ensitrelvir</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1839,12 +1839,12 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>UMLS:C5783688</t>
+          <t>UNII:AP7FFK83RM</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Ufrenmeran</t>
+          <t>UFRENMERAN</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1895,12 +1895,12 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>UNII:C9R35M8XV6</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Hiberix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1951,12 +1951,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB18714</t>
+          <t>DRUGBANK:DB18713</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Recombinant stabilized RSV B prefusion F antigen</t>
+          <t>Recombinant stabilized RSV A prefusion F antigen</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2063,12 +2063,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB18714</t>
+          <t>DRUGBANK:DB18713</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Recombinant stabilized RSV B prefusion F antigen</t>
+          <t>Recombinant stabilized RSV A prefusion F antigen</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2231,12 +2231,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2343,12 +2343,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB10558</t>
+          <t>DRUGBANK:DB11601</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Tuberculin purified protein derivative</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3855,12 +3855,12 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>UNII:C9R35M8XV6</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Hiberix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4639,12 +4639,12 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:51346597</t>
+          <t>UNII:0L77PK62L1</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Clazosentan Sodium</t>
+          <t>CLAZOSENTAN SODIUM</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4919,12 +4919,12 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>UNII:5SML1T733B</t>
+          <t>UNII:54K37P50KH</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>VALBENAZINE TOSYLATE</t>
+          <t>Valbenazine</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -6767,12 +6767,12 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>CHEBI:2637</t>
+          <t>PUBCHEM.COMPOUND:5458175</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Amikacin</t>
+          <t>AMIKACIN SULFATE</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Levoxyl</t>
+          <t>Levothroid</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Tirabrutinib Hydrochloride</t>
+          <t>TIRABRUTINIB HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -8727,12 +8727,12 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9231,12 +9231,12 @@
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>UNII:094DKY9OHM</t>
+          <t>PUBCHEM.COMPOUND:12650</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Metirosine hydrochloride</t>
+          <t>Metirosine, (R)-</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
@@ -9455,12 +9455,12 @@
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
-          <t>UNII:Z5N076G8YQ</t>
+          <t>CHEBI:68590</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Fidaxomicin</t>
+          <t>fidaxomicin</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
@@ -10463,12 +10463,12 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>RXCUI:801721</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Kinrix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N179" t="inlineStr"/>
@@ -12031,12 +12031,12 @@
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
-          <t>UNII:V1N8F1RVVO</t>
+          <t>UNII:03KSI6WLXH</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>NALDEMEDINE TOSYLATE</t>
+          <t>Naldemedine</t>
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
@@ -14551,12 +14551,12 @@
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB11598</t>
+          <t>DRUGBANK:DB11166</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Antithrombin III human</t>
+          <t>Antithrombin Alfa</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
@@ -15503,7 +15503,7 @@
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
-          <t>UNII:B2L6AES9XQ</t>
+          <t>CHEBI:73272</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -16287,12 +16287,12 @@
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
-          <t>RXCUI:801721</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Kinrix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
@@ -16343,12 +16343,12 @@
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>UNII:2NDX4B6N8F</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>HA 22</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
@@ -18191,12 +18191,12 @@
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>UNII:2NDX4B6N8F</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>HA 22</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
@@ -18807,12 +18807,12 @@
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
-          <t>CHEBI:4450</t>
+          <t>PUBCHEM.COMPOUND:64759</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Desmopressin</t>
+          <t>Desmopressin acetate hydrate</t>
         </is>
       </c>
       <c r="N328" t="inlineStr"/>
@@ -19535,12 +19535,12 @@
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
-          <t>RXCUI:801721</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Kinrix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
@@ -19591,12 +19591,12 @@
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
-          <t>RXCUI:801721</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Kinrix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
@@ -19983,12 +19983,12 @@
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
-          <t>CHEBI:31228</t>
+          <t>PUBCHEM.COMPOUND:121437280</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>CHEMBL3187985</t>
+          <t>Apomorphine hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
@@ -20884,7 +20884,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>CHEMBL2367465</t>
+          <t>alendronate sodium trihydrate</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
@@ -21943,12 +21943,12 @@
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
-          <t>CHEBI:135947</t>
+          <t>UNII:J70472UD3D</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Bazedoxifene</t>
+          <t>BAZEDOXIFENE ACETATE</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
@@ -22279,12 +22279,12 @@
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
-          <t>UNII:LR3UXN0193</t>
+          <t>DRUGBANK:DB19434</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Methoxy polyethylene glycol-epoetin beta</t>
+          <t>Epoetin beta</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
@@ -23231,12 +23231,12 @@
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
-          <t>UNII:780F0P8N4I</t>
+          <t>CHEBI:59936</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>miriplatin</t>
+          <t>ciprofloxacin hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
@@ -24575,12 +24575,12 @@
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
-          <t>CHEBI:81567</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Thyrotropin</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N431" t="inlineStr"/>
@@ -24687,12 +24687,12 @@
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:146156971</t>
+          <t>PUBCHEM.COMPOUND:163203584</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Hydroxocobalamin (hydrochloride)</t>
+          <t>Hydroxocobalamin sulfate</t>
         </is>
       </c>
       <c r="N433" t="inlineStr"/>
@@ -25471,12 +25471,12 @@
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:145945107</t>
+          <t>CHEBI:9180</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>Gadoxetate sodium</t>
+          <t>Sodium salicylate</t>
         </is>
       </c>
       <c r="N447" t="inlineStr"/>
@@ -26989,12 +26989,12 @@
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
-          <t>UNII:RWM8CCW8GP</t>
+          <t>UNII:75R0U2568I</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Octreotide</t>
+          <t>Octreotide Acetate</t>
         </is>
       </c>
       <c r="N475" t="inlineStr"/>
@@ -27637,12 +27637,12 @@
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
-          <t>CHEBI:5971</t>
+          <t>UNII:19364RWW06</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>irinotecan hydrochloride (anhydrous)</t>
+          <t>maropitant citrate anhydrous</t>
         </is>
       </c>
       <c r="N487" t="inlineStr"/>
@@ -27963,12 +27963,12 @@
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
-          <t>CHEBI:28142</t>
+          <t>CHEBI:59936</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>Chloral hydrate</t>
+          <t>ciprofloxacin hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N493" t="inlineStr"/>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Ropeginterferon alfa-2b</t>
+          <t>CID 86278347</t>
         </is>
       </c>
       <c r="N510" t="inlineStr"/>
@@ -29251,12 +29251,12 @@
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
-          <t>CHEBI:231425</t>
+          <t>PUBCHEM.COMPOUND:163203552</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>tolvaptan</t>
+          <t>Tolvaptan Sodium Phosphate</t>
         </is>
       </c>
       <c r="N516" t="inlineStr"/>
@@ -29699,12 +29699,12 @@
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
-          <t>UNII:5YL4IQ1078</t>
+          <t>UNII:Y6581YAW9V</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>Osilodrostat</t>
+          <t>OSILODROSTAT PHOSPHATE</t>
         </is>
       </c>
       <c r="N524" t="inlineStr"/>
@@ -29923,12 +29923,12 @@
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
-          <t>UNII:TY34L4F9OZ</t>
+          <t>PUBCHEM.COMPOUND:162461035</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>Capmatinib</t>
+          <t>Capmatinib hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N528" t="inlineStr"/>
@@ -30987,12 +30987,12 @@
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N547" t="inlineStr"/>
@@ -31043,12 +31043,12 @@
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N548" t="inlineStr"/>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="M606" t="inlineStr">
         <is>
-          <t>CHEMBL3781004</t>
+          <t>Luseogliflozin hydrate</t>
         </is>
       </c>
       <c r="N606" t="inlineStr"/>
@@ -34403,12 +34403,12 @@
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M608" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N608" t="inlineStr"/>
@@ -34459,12 +34459,12 @@
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>DRUGBANK:DB19320</t>
         </is>
       </c>
       <c r="M609" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N609" t="inlineStr"/>
@@ -34515,12 +34515,12 @@
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>DRUGBANK:DB19320</t>
         </is>
       </c>
       <c r="M610" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N610" t="inlineStr"/>
@@ -34571,12 +34571,12 @@
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>DRUGBANK:DB09877</t>
         </is>
       </c>
       <c r="M611" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>Corynebacterium diphtheriae</t>
         </is>
       </c>
       <c r="N611" t="inlineStr"/>
@@ -34851,12 +34851,12 @@
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
-          <t>CHEBI:135920</t>
+          <t>UNII:EOS72165S7</t>
         </is>
       </c>
       <c r="M616" t="inlineStr">
         <is>
-          <t>Fesoterodine</t>
+          <t>FESOTERODINE FUMARATE</t>
         </is>
       </c>
       <c r="N616" t="inlineStr"/>
@@ -36139,12 +36139,12 @@
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
-          <t>CHEBI:70746</t>
+          <t>CHEBI:70743</t>
         </is>
       </c>
       <c r="M639" t="inlineStr">
         <is>
-          <t>Dabigatran etexilate</t>
+          <t>Rendix</t>
         </is>
       </c>
       <c r="N639" t="inlineStr"/>
@@ -36699,12 +36699,12 @@
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:129858712</t>
+          <t>CHEBI:85196</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>Peramivir hydrate</t>
+          <t>Rapivab</t>
         </is>
       </c>
       <c r="N649" t="inlineStr"/>
@@ -37595,12 +37595,12 @@
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:2724192</t>
+          <t>UNII:FM5526K07A</t>
         </is>
       </c>
       <c r="M665" t="inlineStr">
         <is>
-          <t>Zinc acetate dihydrate</t>
+          <t>ZINC ACETATE</t>
         </is>
       </c>
       <c r="N665" t="inlineStr"/>
@@ -37766,7 +37766,7 @@
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>CHEMBL5087555</t>
+          <t>Mozavaptane hydrochloride</t>
         </is>
       </c>
       <c r="N668" t="inlineStr"/>
@@ -38193,12 +38193,12 @@
       <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N676" t="inlineStr"/>
@@ -38519,12 +38519,12 @@
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
-          <t>CHEBI:229660</t>
+          <t>PUBCHEM.COMPOUND:169490697</t>
         </is>
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>zilucoplan sodium</t>
+          <t>Zilucoplan sodium</t>
         </is>
       </c>
       <c r="N682" t="inlineStr"/>
@@ -38575,12 +38575,12 @@
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
-          <t>UNII:0P70AR5BYB</t>
+          <t>UNII:NA1U919MRO</t>
         </is>
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>Difelikefalin Acetate</t>
+          <t>Difelikefalin</t>
         </is>
       </c>
       <c r="N683" t="inlineStr"/>
@@ -38967,12 +38967,12 @@
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB17994</t>
+          <t>DRUGBANK:DB19320</t>
         </is>
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>Influenza A Virus A/Victoria/4897/2022 IVR-238 (H1N1) antigen (formaldehyde inactivated)</t>
+          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N690" t="inlineStr"/>
@@ -40036,7 +40036,7 @@
       </c>
       <c r="M709" t="inlineStr">
         <is>
-          <t>Pasireotide Pamoate</t>
+          <t>PASIREOTIDE PAMOATE</t>
         </is>
       </c>
       <c r="N709" t="inlineStr"/>
@@ -42359,12 +42359,12 @@
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N751" t="inlineStr"/>
@@ -42807,12 +42807,12 @@
       <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr">
         <is>
-          <t>RXCUI:1424887</t>
+          <t>CHEBI:5134</t>
         </is>
       </c>
       <c r="M759" t="inlineStr">
         <is>
-          <t>fluticasone / vilanterol Dry Powder Inhaler</t>
+          <t>Fluticasone</t>
         </is>
       </c>
       <c r="N759" t="inlineStr"/>
@@ -43031,12 +43031,12 @@
       <c r="K763" t="inlineStr"/>
       <c r="L763" t="inlineStr">
         <is>
-          <t>RXCUI:1437811</t>
+          <t>UNII:A57KX1VL5P</t>
         </is>
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>Rixubis Injectable Product</t>
+          <t>Albutrepenonacog alfa</t>
         </is>
       </c>
       <c r="N763" t="inlineStr"/>
@@ -43641,12 +43641,12 @@
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N774" t="inlineStr"/>
@@ -43865,12 +43865,12 @@
       <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
-          <t>RXCUI:1437811</t>
+          <t>UNII:21K6M2I7AG</t>
         </is>
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>Rixubis Injectable Product</t>
+          <t>Interferon gamma-1b</t>
         </is>
       </c>
       <c r="N778" t="inlineStr"/>
@@ -44033,12 +44033,12 @@
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N781" t="inlineStr"/>
@@ -44593,12 +44593,12 @@
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M791" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N791" t="inlineStr"/>
@@ -44649,12 +44649,12 @@
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M792" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N792" t="inlineStr"/>
@@ -44705,12 +44705,12 @@
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
-          <t>UNII:VQ723R7O8R</t>
+          <t>UNII:6892UQT2GK</t>
         </is>
       </c>
       <c r="M793" t="inlineStr">
         <is>
-          <t>Lonoctocog alfa</t>
+          <t>Susoctocog alfa</t>
         </is>
       </c>
       <c r="N793" t="inlineStr"/>
@@ -44761,12 +44761,12 @@
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
-          <t>UNII:LR3UXN0193</t>
+          <t>PUBCHEM.COMPOUND:92043599</t>
         </is>
       </c>
       <c r="M794" t="inlineStr">
         <is>
-          <t>Methoxy polyethylene glycol-epoetin beta</t>
+          <t>epoetin alfa</t>
         </is>
       </c>
       <c r="N794" t="inlineStr"/>
@@ -47329,12 +47329,12 @@
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr">
         <is>
-          <t>CHEBI:3752</t>
+          <t>CHEBI:3753</t>
         </is>
       </c>
       <c r="M840" t="inlineStr">
         <is>
-          <t>Clomifene</t>
+          <t>clomiphene citrate</t>
         </is>
       </c>
       <c r="N840" t="inlineStr"/>
@@ -47390,7 +47390,7 @@
       </c>
       <c r="M841" t="inlineStr">
         <is>
-          <t>CHEMBL1390</t>
+          <t>medroxyprogesterone</t>
         </is>
       </c>
       <c r="N841" t="inlineStr"/>
@@ -47553,7 +47553,7 @@
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:135430945</t>
+          <t>PUBCHEM.COMPOUND:135436482</t>
         </is>
       </c>
       <c r="M844" t="inlineStr">
@@ -47721,12 +47721,12 @@
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB09222</t>
+          <t>CHEBI:5931</t>
         </is>
       </c>
       <c r="M847" t="inlineStr">
         <is>
-          <t>Fibrinogen human</t>
+          <t>insulin human</t>
         </is>
       </c>
       <c r="N847" t="inlineStr"/>
@@ -48393,12 +48393,12 @@
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>UNII:2NDX4B6N8F</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>HA 22</t>
         </is>
       </c>
       <c r="N859" t="inlineStr"/>
@@ -48449,12 +48449,12 @@
       <c r="K860" t="inlineStr"/>
       <c r="L860" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB15507</t>
+          <t>UNII:2NDX4B6N8F</t>
         </is>
       </c>
       <c r="M860" t="inlineStr">
         <is>
-          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
+          <t>HA 22</t>
         </is>
       </c>
       <c r="N860" t="inlineStr"/>
@@ -48790,7 +48790,7 @@
       </c>
       <c r="M866" t="inlineStr">
         <is>
-          <t>CHEMBL4303345</t>
+          <t>ciprofloxacin hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N866" t="inlineStr"/>
@@ -48953,12 +48953,12 @@
       <c r="K869" t="inlineStr"/>
       <c r="L869" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB09877</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M869" t="inlineStr">
         <is>
-          <t>Corynebacterium diphtheriae</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N869" t="inlineStr"/>
@@ -49849,12 +49849,12 @@
       <c r="K885" t="inlineStr"/>
       <c r="L885" t="inlineStr">
         <is>
-          <t>RXCUI:203439</t>
+          <t>MESH:C509326</t>
         </is>
       </c>
       <c r="M885" t="inlineStr">
         <is>
-          <t>Havrix</t>
+          <t>adacel</t>
         </is>
       </c>
       <c r="N885" t="inlineStr"/>
@@ -50638,7 +50638,7 @@
       </c>
       <c r="M899" t="inlineStr">
         <is>
-          <t>CHEMBL376464</t>
+          <t>vincaleukoblastine sulfate</t>
         </is>
       </c>
       <c r="N899" t="inlineStr"/>
@@ -52201,12 +52201,12 @@
       <c r="K927" t="inlineStr"/>
       <c r="L927" t="inlineStr">
         <is>
-          <t>UNII:5384HK7574</t>
+          <t>UNII:P188ANX8CK</t>
         </is>
       </c>
       <c r="M927" t="inlineStr">
         <is>
-          <t>Trastuzumab deruxtecan</t>
+          <t>Trastuzumab</t>
         </is>
       </c>
       <c r="N927" t="inlineStr"/>
@@ -52761,12 +52761,12 @@
       <c r="K937" t="inlineStr"/>
       <c r="L937" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB11598</t>
+          <t>DRUGBANK:DB11166</t>
         </is>
       </c>
       <c r="M937" t="inlineStr">
         <is>
-          <t>Antithrombin III human</t>
+          <t>Antithrombin Alfa</t>
         </is>
       </c>
       <c r="N937" t="inlineStr"/>
@@ -53662,7 +53662,7 @@
       </c>
       <c r="M953" t="inlineStr">
         <is>
-          <t>Rifampicin</t>
+          <t>Rifampin</t>
         </is>
       </c>
       <c r="N953" t="inlineStr"/>
@@ -55454,7 +55454,7 @@
       </c>
       <c r="M985" t="inlineStr">
         <is>
-          <t>CHEMBL4175954</t>
+          <t>MEROPENEM</t>
         </is>
       </c>
       <c r="N985" t="inlineStr"/>
@@ -55953,12 +55953,12 @@
       <c r="K994" t="inlineStr"/>
       <c r="L994" t="inlineStr">
         <is>
-          <t>CHEBI:8493</t>
+          <t>CHEBI:8494</t>
         </is>
       </c>
       <c r="M994" t="inlineStr">
         <is>
-          <t>Propiverine</t>
+          <t>Propiverine hydrochloride</t>
         </is>
       </c>
       <c r="N994" t="inlineStr"/>
@@ -56182,7 +56182,7 @@
       </c>
       <c r="M998" t="inlineStr">
         <is>
-          <t>CHEMBL3184482</t>
+          <t>arbekacin sulfate</t>
         </is>
       </c>
       <c r="N998" t="inlineStr"/>
@@ -56345,12 +56345,12 @@
       <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>CHEBI:5538</t>
+          <t>UNII:318F6L70J8</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr">
         <is>
-          <t>Granisetron hydrochloride</t>
+          <t>GRANISETRON HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="N1001" t="inlineStr"/>
@@ -56569,12 +56569,12 @@
       <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>MESH:C000726347</t>
+          <t>MESH:C075654</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr">
         <is>
-          <t>Heplisav-B</t>
+          <t>Engerix-B</t>
         </is>
       </c>
       <c r="N1005" t="inlineStr"/>
@@ -57638,7 +57638,7 @@
       </c>
       <c r="M1024" t="inlineStr">
         <is>
-          <t>CHEMBL3184847</t>
+          <t>Potassium 2,6-dihydroxytriazinecarboxylate</t>
         </is>
       </c>
       <c r="N1024" t="inlineStr"/>
@@ -58845,12 +58845,12 @@
       <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:158220</t>
+          <t>CHEBI:125400</t>
         </is>
       </c>
       <c r="M1046" t="inlineStr">
         <is>
-          <t>7-(2,3-epoxypropoxy)actinomycin D</t>
+          <t>actinomycin D</t>
         </is>
       </c>
       <c r="N1046" t="inlineStr"/>
@@ -58899,12 +58899,12 @@
       <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>CHEBI:32121</t>
+          <t>CHEBI:63621</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr">
         <is>
-          <t>Saquinavir mesylate</t>
+          <t>Saquinavir</t>
         </is>
       </c>
       <c r="N1047" t="inlineStr"/>
@@ -59390,7 +59390,7 @@
       </c>
       <c r="M1056" t="inlineStr">
         <is>
-          <t>CHEMBL4303345</t>
+          <t>ciprofloxacin hydrochloride hydrate</t>
         </is>
       </c>
       <c r="N1056" t="inlineStr"/>
@@ -59493,12 +59493,12 @@
       <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>CHEBI:8768</t>
+          <t>CHEBI:2676</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr">
         <is>
-          <t>Rabeprazole</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="N1058" t="inlineStr"/>
@@ -59768,7 +59768,7 @@
       </c>
       <c r="M1063" t="inlineStr">
         <is>
-          <t>CHEMBL4175954</t>
+          <t>MEROPENEM</t>
         </is>
       </c>
       <c r="N1063" t="inlineStr"/>

--- a/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
+++ b/drug-list/data/02_intermediate/pmda/pmda-with-ingredient-ids.xlsx
@@ -2231,12 +2231,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2847,12 +2847,12 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>UNII:3H8GSZ4SQL</t>
+          <t>UNII:GDW7M2P1IS</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Avatrombopag</t>
+          <t>AVATROMBOPAG MALEATE</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3183,12 +3183,12 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CHEBI:9180</t>
+          <t>CHEBI:28741</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Sodium salicylate</t>
+          <t>Sodium fluoride</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -4919,12 +4919,12 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>UNII:54K37P50KH</t>
+          <t>UNII:5SML1T733B</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Valbenazine</t>
+          <t>VALBENAZINE TOSYLATE</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -6879,12 +6879,12 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>UNII:XZA0KB1BDQ</t>
+          <t>UNII:88SH1NBL2B</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Berotralstat</t>
+          <t>Berotralstat Hydrochloride</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -6991,12 +6991,12 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>CHEBI:4508</t>
+          <t>CHEBI:47381</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>diclofenac potassium</t>
+          <t>Diclofenac</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7607,12 +7607,12 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>CHEBI:6446</t>
+          <t>CHEBI:18332</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Levothroid</t>
+          <t>Levothyroxine</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8727,12 +8727,12 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>CID 86278165</t>
+          <t>Ferric carboxymaltose</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
@@ -12031,12 +12031,12 @@
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
-          <t>UNII:03KSI6WLXH</t>
+          <t>UNII:V1N8F1RVVO</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Naldemedine</t>
+          <t>NALDEMEDINE TOSYLATE</t>
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
@@ -12087,12 +12087,12 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>CHEBI:31414</t>
+          <t>CHEBI:205919</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Clobetasol propionate</t>
+          <t>Clobetasol</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
@@ -12255,12 +12255,12 @@
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
-          <t>UNII:4O2AB118LA</t>
+          <t>CHEBI:132975</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>GRAZOPREVIR</t>
+          <t>Grazoprevir</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
@@ -14663,12 +14663,12 @@
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
-          <t>CHEBI:26710</t>
+          <t>CHEBI:43830</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Sodium chloride</t>
+          <t>Methylthioninium</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Nalfurafine hydrochloride</t>
+          <t>Nalfurafine Hydrochloride</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
@@ -15391,12 +15391,12 @@
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
-          <t>CHEBI:34650</t>
+          <t>CHEBI:37943</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>COLISTIMETHATE</t>
+          <t>Colistin</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
@@ -15503,12 +15503,12 @@
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
-          <t>CHEBI:73272</t>
+          <t>CHEBI:73274</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>CANAGLIFLOZIN</t>
+          <t>Canagliflozin</t>
         </is>
       </c>
       <c r="N269" t="inlineStr"/>
@@ -15727,12 +15727,12 @@
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
-          <t>CHEBI:68639</t>
+          <t>CHEBI:68642</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>abiraterone acetate</t>
+          <t>Abiraterone</t>
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
@@ -15839,12 +15839,12 @@
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
-          <t>CHEBI:66917</t>
+          <t>CHEBI:66919</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>ruxolitinib phosphate</t>
+          <t>Ruxolitinib</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
@@ -15951,12 +15951,12 @@
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
-          <t>CHEBI:55345</t>
+          <t>CHEBI:142290</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>anagrelide hydrochloride</t>
+          <t>Anagrelide</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
@@ -16343,12 +16343,12 @@
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
-          <t>UNII:2NDX4B6N8F</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>HA 22</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
@@ -18079,12 +18079,12 @@
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
-          <t>CHEBI:76007</t>
+          <t>CHEBI:76010</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>dolutegravir sodium</t>
+          <t>Dolutegravir</t>
         </is>
       </c>
       <c r="N315" t="inlineStr"/>
@@ -18191,12 +18191,12 @@
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
-          <t>UNII:2NDX4B6N8F</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>HA 22</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
@@ -19031,12 +19031,12 @@
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
-          <t>CHEBI:71197</t>
+          <t>CHEBI:71200</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>tofacitinib citrate</t>
+          <t>Tofacitinib</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
@@ -19311,12 +19311,12 @@
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
-          <t>CHEBI:71217</t>
+          <t>CHEBI:71219</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>pazopanib hydrochloride</t>
+          <t>Pazopanib</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
@@ -19759,12 +19759,12 @@
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
-          <t>CHEBI:31934</t>
+          <t>CHEBI:50275</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Omeprazole sodium</t>
+          <t>Esomeprazole</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
@@ -19815,12 +19815,12 @@
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
-          <t>CHEBI:64311</t>
+          <t>CHEBI:64321</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>fosaprepitant dimeglumine</t>
+          <t>Fosaprepitant</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
@@ -20879,12 +20879,12 @@
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
-          <t>CHEBI:2566</t>
+          <t>CHEBI:2567</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>alendronate sodium trihydrate</t>
+          <t>Alendronic acid</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
@@ -22055,12 +22055,12 @@
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
-          <t>CHEBI:4462</t>
+          <t>CHEBI:41879</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>dexamethasone sodium phosphate</t>
+          <t>Dexamethasone</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
@@ -22391,12 +22391,12 @@
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
-          <t>CHEBI:53777</t>
+          <t>PUBCHEM.COMPOUND:9939627</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>aliskiren fumarate</t>
+          <t>ALISKIREN FUMARATE</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
@@ -23231,12 +23231,12 @@
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
-          <t>CHEBI:59936</t>
+          <t>UNII:780F0P8N4I</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>ciprofloxacin hydrochloride hydrate</t>
+          <t>miriplatin</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
@@ -24575,12 +24575,12 @@
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N431" t="inlineStr"/>
@@ -25471,12 +25471,12 @@
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
-          <t>CHEBI:9180</t>
+          <t>UNII:HOY74VZE0M</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>Sodium salicylate</t>
+          <t>gadoxetate</t>
         </is>
       </c>
       <c r="N447" t="inlineStr"/>
@@ -26071,12 +26071,12 @@
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
-          <t>CHEBI:7008</t>
+          <t>CHEBI:63611</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>moxifloxacin hydrochloride</t>
+          <t>Moxifloxacin</t>
         </is>
       </c>
       <c r="N458" t="inlineStr"/>
@@ -26773,12 +26773,12 @@
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
-          <t>CHEBI:2676</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="N471" t="inlineStr"/>
@@ -26827,12 +26827,12 @@
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:121480897</t>
+          <t>PUBCHEM.COMPOUND:6475367</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>Ciclosporin V (Cyclosporin Impurity E)</t>
+          <t>[MeVal]5-Ciclosporin</t>
         </is>
       </c>
       <c r="N472" t="inlineStr"/>
@@ -26989,12 +26989,12 @@
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
-          <t>UNII:75R0U2568I</t>
+          <t>UNII:RWM8CCW8GP</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Octreotide Acetate</t>
+          <t>Octreotide</t>
         </is>
       </c>
       <c r="N475" t="inlineStr"/>
@@ -27259,12 +27259,12 @@
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
-          <t>CHEBI:7003</t>
+          <t>CHEBI:17303</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>morphine sulfate</t>
+          <t>Morphine</t>
         </is>
       </c>
       <c r="N480" t="inlineStr"/>
@@ -27637,12 +27637,12 @@
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
-          <t>UNII:19364RWW06</t>
+          <t>CHEBI:5971</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>maropitant citrate anhydrous</t>
+          <t>irinotecan hydrochloride (anhydrous)</t>
         </is>
       </c>
       <c r="N487" t="inlineStr"/>
@@ -27963,12 +27963,12 @@
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
-          <t>CHEBI:59936</t>
+          <t>CHEBI:36560</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>ciprofloxacin hydrochloride hydrate</t>
+          <t>Zinc oxide</t>
         </is>
       </c>
       <c r="N493" t="inlineStr"/>
@@ -29307,12 +29307,12 @@
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
-          <t>CHEBI:7963</t>
+          <t>CHEBI:18208</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>benzylpenicillin potassium</t>
+          <t>Penicillin G</t>
         </is>
       </c>
       <c r="N517" t="inlineStr"/>
@@ -29699,12 +29699,12 @@
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
-          <t>UNII:Y6581YAW9V</t>
+          <t>UNII:5YL4IQ1078</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>OSILODROSTAT PHOSPHATE</t>
+          <t>Osilodrostat</t>
         </is>
       </c>
       <c r="N524" t="inlineStr"/>
@@ -29923,12 +29923,12 @@
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:162461035</t>
+          <t>CHEBI:231693</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>Capmatinib hydrochloride hydrate</t>
+          <t>Capmatinib</t>
         </is>
       </c>
       <c r="N528" t="inlineStr"/>
@@ -30147,12 +30147,12 @@
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
-          <t>CHEBI:76015</t>
+          <t>CHEBI:76016</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>vortioxetine hydrobromide</t>
+          <t>Vortioxetine</t>
         </is>
       </c>
       <c r="N532" t="inlineStr"/>
@@ -30987,12 +30987,12 @@
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N547" t="inlineStr"/>
@@ -31043,12 +31043,12 @@
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N548" t="inlineStr"/>
@@ -33115,12 +33115,12 @@
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
-          <t>CHEBI:75991</t>
+          <t>CHEBI:75998</t>
         </is>
       </c>
       <c r="M585" t="inlineStr">
         <is>
-          <t>trametinib dimethyl sulfoxide</t>
+          <t>Trametinib</t>
         </is>
       </c>
       <c r="N585" t="inlineStr"/>
@@ -33507,12 +33507,12 @@
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
-          <t>CHEBI:65344</t>
+          <t>CHEBI:65346</t>
         </is>
       </c>
       <c r="M592" t="inlineStr">
         <is>
-          <t>aclidinium bromide</t>
+          <t>Aclidinium</t>
         </is>
       </c>
       <c r="N592" t="inlineStr"/>
@@ -33787,12 +33787,12 @@
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
-          <t>CHEBI:62268</t>
+          <t>CHEBI:90936</t>
         </is>
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>alectinib hydrochloride</t>
+          <t>Alectinib</t>
         </is>
       </c>
       <c r="N597" t="inlineStr"/>
@@ -34235,12 +34235,12 @@
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:24936221</t>
+          <t>CHEBI:85078</t>
         </is>
       </c>
       <c r="M605" t="inlineStr">
         <is>
-          <t>Dapagliflozin propylene glycolate hydrate</t>
+          <t>Dapagliflozin</t>
         </is>
       </c>
       <c r="N605" t="inlineStr"/>
@@ -34403,12 +34403,12 @@
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M608" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N608" t="inlineStr"/>
@@ -34459,12 +34459,12 @@
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB19320</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M609" t="inlineStr">
         <is>
-          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N609" t="inlineStr"/>
@@ -34515,12 +34515,12 @@
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB19320</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M610" t="inlineStr">
         <is>
-          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N610" t="inlineStr"/>
@@ -34571,12 +34571,12 @@
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB09877</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M611" t="inlineStr">
         <is>
-          <t>Corynebacterium diphtheriae</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N611" t="inlineStr"/>
@@ -34795,12 +34795,12 @@
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
-          <t>CHEBI:50140</t>
+          <t>CHEBI:167309</t>
         </is>
       </c>
       <c r="M615" t="inlineStr">
         <is>
-          <t>methadone hydrochloride</t>
+          <t>Methadone</t>
         </is>
       </c>
       <c r="N615" t="inlineStr"/>
@@ -35355,12 +35355,12 @@
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
-          <t>CHEBI:71271</t>
+          <t>CHEBI:71272</t>
         </is>
       </c>
       <c r="M625" t="inlineStr">
         <is>
-          <t>saxagliptin</t>
+          <t>Saxagliptin</t>
         </is>
       </c>
       <c r="N625" t="inlineStr"/>
@@ -35803,12 +35803,12 @@
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
-          <t>CHEBI:63112</t>
+          <t>CHEBI:63115</t>
         </is>
       </c>
       <c r="M633" t="inlineStr">
         <is>
-          <t>fingolimod hydrochloride</t>
+          <t>Fingolimod</t>
         </is>
       </c>
       <c r="N633" t="inlineStr"/>
@@ -35859,12 +35859,12 @@
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
-          <t>CHEBI:59900</t>
+          <t>UNII:VUW370O5QE</t>
         </is>
       </c>
       <c r="M634" t="inlineStr">
         <is>
-          <t>caspofungin acetate</t>
+          <t>CASPOFUNGIN ACETATE</t>
         </is>
       </c>
       <c r="N634" t="inlineStr"/>
@@ -36139,12 +36139,12 @@
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
-          <t>CHEBI:70743</t>
+          <t>CHEBI:70746</t>
         </is>
       </c>
       <c r="M639" t="inlineStr">
         <is>
-          <t>Rendix</t>
+          <t>Dabigatran etexilate</t>
         </is>
       </c>
       <c r="N639" t="inlineStr"/>
@@ -36419,12 +36419,12 @@
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
-          <t>UNII:6A901E312A</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
         <is>
-          <t>Panitumumab</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="N644" t="inlineStr"/>
@@ -36587,12 +36587,12 @@
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
-          <t>CHEBI:31526</t>
+          <t>CHEBI:36795</t>
         </is>
       </c>
       <c r="M647" t="inlineStr">
         <is>
-          <t>(S)-duloxetine hydrochloride</t>
+          <t>Duloxetine</t>
         </is>
       </c>
       <c r="N647" t="inlineStr"/>
@@ -36643,12 +36643,12 @@
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
-          <t>CHEBI:90952</t>
+          <t>CHEBI:90953</t>
         </is>
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>sugammadex sodium</t>
+          <t>Sugammadex</t>
         </is>
       </c>
       <c r="N648" t="inlineStr"/>
@@ -36704,7 +36704,7 @@
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>Rapivab</t>
+          <t>peramivir hydrate</t>
         </is>
       </c>
       <c r="N649" t="inlineStr"/>
@@ -37483,12 +37483,12 @@
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
-          <t>CHEBI:6993</t>
+          <t>CHEBI:50730</t>
         </is>
       </c>
       <c r="M663" t="inlineStr">
         <is>
-          <t>montelukast sodium</t>
+          <t>Montelukast</t>
         </is>
       </c>
       <c r="N663" t="inlineStr"/>
@@ -38193,12 +38193,12 @@
       <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="N676" t="inlineStr"/>
@@ -38301,12 +38301,12 @@
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
-          <t>CHEBI:16027</t>
+          <t>CHEBI:16335</t>
         </is>
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>Adenosine</t>
         </is>
       </c>
       <c r="N678" t="inlineStr"/>
@@ -38575,12 +38575,12 @@
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
-          <t>UNII:NA1U919MRO</t>
+          <t>UNII:0P70AR5BYB</t>
         </is>
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>Difelikefalin</t>
+          <t>DIFELIKEFALIN ACETATE</t>
         </is>
       </c>
       <c r="N683" t="inlineStr"/>
@@ -38967,12 +38967,12 @@
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
-          <t>DRUGBANK:DB19320</t>
+          <t>DRUGBANK:DB18750</t>
         </is>
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>Influenza A virus A/Thailand/8/2022 IVR-237 (H3N2) antigen (propiolactone inactivated)</t>
+          <t>Influenza A Virus A/California/122/2022 SAN-022 (H3N2) antigen (formaldehyde inactivated)</t>
         </is>
       </c>
       <c r="N690" t="inlineStr"/>
@@ -40087,12 +40087,12 @@
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
-          <t>CHEBI:90939</t>
+          <t>CHEBI:90942</t>
         </is>
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>ixazomib citrate</t>
+          <t>Ixazomib</t>
         </is>
       </c>
       <c r="N710" t="inlineStr"/>
@@ -40311,12 +40311,12 @@
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
-          <t>CHEBI:31602</t>
+          <t>CHEBI:119915</t>
         </is>
       </c>
       <c r="M714" t="inlineStr">
         <is>
-          <t>fentanyl citrate</t>
+          <t>Fentanyl</t>
         </is>
       </c>
       <c r="N714" t="inlineStr"/>
@@ -41151,12 +41151,12 @@
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
-          <t>CHEBI:53509</t>
+          <t>CHEBI:114785</t>
         </is>
       </c>
       <c r="M729" t="inlineStr">
         <is>
-          <t>Tarceva</t>
+          <t>Erlotinib</t>
         </is>
       </c>
       <c r="N729" t="inlineStr"/>
@@ -41313,12 +41313,12 @@
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:6440720</t>
+          <t>PUBCHEM.COMPOUND:170190</t>
         </is>
       </c>
       <c r="M732" t="inlineStr">
         <is>
-          <t>avobenzone, ensulizole, enzacamene drug combination</t>
+          <t>aluminum hydroxide, magnesium hydroxide, simethicone drug combination</t>
         </is>
       </c>
       <c r="N732" t="inlineStr"/>
@@ -41855,12 +41855,12 @@
       <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
-          <t>UNII:WYD79216A6</t>
+          <t>UNII:50605O2ZNS</t>
         </is>
       </c>
       <c r="M742" t="inlineStr">
         <is>
-          <t>Tenapanor</t>
+          <t>TENAPANOR HYDROCHLORIDE</t>
         </is>
       </c>
       <c r="N742" t="inlineStr"/>
@@ -42135,12 +42135,12 @@
       <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
-          <t>CHEBI:70732</t>
+          <t>CHEBI:70735</t>
         </is>
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>lurasidone hydrochloride</t>
+          <t>Lurasidone</t>
         </is>
       </c>
       <c r="N747" t="inlineStr"/>
@@ -42359,12 +42359,12 @@
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N751" t="inlineStr"/>
@@ -43307,12 +43307,12 @@
       <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr">
         <is>
-          <t>CHEBI:31387</t>
+          <t>CHEBI:59224</t>
         </is>
       </c>
       <c r="M768" t="inlineStr">
         <is>
-          <t>Cetrotide</t>
+          <t>Cetrorelix</t>
         </is>
       </c>
       <c r="N768" t="inlineStr"/>
@@ -43641,12 +43641,12 @@
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N774" t="inlineStr"/>
@@ -43921,12 +43921,12 @@
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
-          <t>CHEBI:31602</t>
+          <t>CHEBI:119915</t>
         </is>
       </c>
       <c r="M779" t="inlineStr">
         <is>
-          <t>fentanyl citrate</t>
+          <t>Fentanyl</t>
         </is>
       </c>
       <c r="N779" t="inlineStr"/>
@@ -44033,12 +44033,12 @@
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N781" t="inlineStr"/>
@@ -44593,12 +44593,12 @@
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M791" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N791" t="inlineStr"/>
@@ -44649,12 +44649,12 @@
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M792" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N792" t="inlineStr"/>
@@ -44705,12 +44705,12 @@
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
-          <t>UNII:6892UQT2GK</t>
+          <t>UNII:U50VWW6XH6</t>
         </is>
       </c>
       <c r="M793" t="inlineStr">
         <is>
-          <t>Susoctocog alfa</t>
+          <t>Simoctocog alfa</t>
         </is>
       </c>
       <c r="N793" t="inlineStr"/>
@@ -45485,12 +45485,12 @@
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr">
         <is>
-          <t>CHEBI:80105</t>
+          <t>CHEBI:600520</t>
         </is>
       </c>
       <c r="M807" t="inlineStr">
         <is>
-          <t>micafungin sodium</t>
+          <t>Micafungin</t>
         </is>
       </c>
       <c r="N807" t="inlineStr"/>
@@ -45651,12 +45651,12 @@
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr">
         <is>
-          <t>CHEBI:85977</t>
+          <t>CHEBI:85978</t>
         </is>
       </c>
       <c r="M810" t="inlineStr">
         <is>
-          <t>isavuconazonium sulfate</t>
+          <t>Isavuconazonium</t>
         </is>
       </c>
       <c r="N810" t="inlineStr"/>
@@ -47161,12 +47161,12 @@
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr">
         <is>
-          <t>CHEBI:4026</t>
+          <t>CHEBI:4027</t>
         </is>
       </c>
       <c r="M837" t="inlineStr">
         <is>
-          <t>cyclophosphamide hydrate</t>
+          <t>Cyclophosphamide</t>
         </is>
       </c>
       <c r="N837" t="inlineStr"/>
@@ -47553,7 +47553,7 @@
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:135436482</t>
+          <t>PUBCHEM.COMPOUND:135430945</t>
         </is>
       </c>
       <c r="M844" t="inlineStr">
@@ -47833,12 +47833,12 @@
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr">
         <is>
-          <t>CHEBI:31456</t>
+          <t>CHEBI:41977</t>
         </is>
       </c>
       <c r="M849" t="inlineStr">
         <is>
-          <t>Daunorubicin hydrochloride</t>
+          <t>Daunorubicin</t>
         </is>
       </c>
       <c r="N849" t="inlineStr"/>
@@ -48337,12 +48337,12 @@
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="inlineStr">
         <is>
-          <t>CHEBI:2417</t>
+          <t>CHEBI:15355</t>
         </is>
       </c>
       <c r="M858" t="inlineStr">
         <is>
-          <t>acetylcholine chloride</t>
+          <t>Acetylcholine</t>
         </is>
       </c>
       <c r="N858" t="inlineStr"/>
@@ -48393,12 +48393,12 @@
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
-          <t>UNII:2NDX4B6N8F</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
         <is>
-          <t>HA 22</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N859" t="inlineStr"/>
@@ -48449,12 +48449,12 @@
       <c r="K860" t="inlineStr"/>
       <c r="L860" t="inlineStr">
         <is>
-          <t>UNII:2NDX4B6N8F</t>
+          <t>DRUGBANK:DB15507</t>
         </is>
       </c>
       <c r="M860" t="inlineStr">
         <is>
-          <t>HA 22</t>
+          <t>Influenza B virus B/Singapore/INFTT-16-0610/2016 antigen (MDCK cell derived, propiolactone inactivated)</t>
         </is>
       </c>
       <c r="N860" t="inlineStr"/>
@@ -48785,12 +48785,12 @@
       <c r="K866" t="inlineStr"/>
       <c r="L866" t="inlineStr">
         <is>
-          <t>CHEBI:59936</t>
+          <t>CHEBI:100241</t>
         </is>
       </c>
       <c r="M866" t="inlineStr">
         <is>
-          <t>ciprofloxacin hydrochloride hydrate</t>
+          <t>Ciprofloxacin</t>
         </is>
       </c>
       <c r="N866" t="inlineStr"/>
@@ -50409,12 +50409,12 @@
       <c r="K895" t="inlineStr"/>
       <c r="L895" t="inlineStr">
         <is>
-          <t>CHEBI:31690</t>
+          <t>CHEBI:45783</t>
         </is>
       </c>
       <c r="M895" t="inlineStr">
         <is>
-          <t>imatinib methanesulfonate</t>
+          <t>Imatinib</t>
         </is>
       </c>
       <c r="N895" t="inlineStr"/>
@@ -50633,12 +50633,12 @@
       <c r="K899" t="inlineStr"/>
       <c r="L899" t="inlineStr">
         <is>
-          <t>CHEBI:9984</t>
+          <t>CHEBI:27375</t>
         </is>
       </c>
       <c r="M899" t="inlineStr">
         <is>
-          <t>vincaleukoblastine sulfate</t>
+          <t>Vinblastine</t>
         </is>
       </c>
       <c r="N899" t="inlineStr"/>
@@ -51137,7 +51137,7 @@
       <c r="K908" t="inlineStr"/>
       <c r="L908" t="inlineStr">
         <is>
-          <t>CHEBI:31695</t>
+          <t>CHEBI:90117</t>
         </is>
       </c>
       <c r="M908" t="inlineStr">
@@ -51249,12 +51249,12 @@
       <c r="K910" t="inlineStr"/>
       <c r="L910" t="inlineStr">
         <is>
-          <t>CHEBI:9423</t>
+          <t>CHEBI:33353</t>
         </is>
       </c>
       <c r="M910" t="inlineStr">
         <is>
-          <t>Cardiolite (TN)</t>
+          <t>technetium atom</t>
         </is>
       </c>
       <c r="N910" t="inlineStr"/>
@@ -51305,12 +51305,12 @@
       <c r="K911" t="inlineStr"/>
       <c r="L911" t="inlineStr">
         <is>
-          <t>CHEBI:9423</t>
+          <t>CHEBI:33353</t>
         </is>
       </c>
       <c r="M911" t="inlineStr">
         <is>
-          <t>Cardiolite (TN)</t>
+          <t>technetium atom</t>
         </is>
       </c>
       <c r="N911" t="inlineStr"/>
@@ -51361,12 +51361,12 @@
       <c r="K912" t="inlineStr"/>
       <c r="L912" t="inlineStr">
         <is>
-          <t>CHEBI:9423</t>
+          <t>CHEBI:33353</t>
         </is>
       </c>
       <c r="M912" t="inlineStr">
         <is>
-          <t>Cardiolite (TN)</t>
+          <t>technetium atom</t>
         </is>
       </c>
       <c r="N912" t="inlineStr"/>
@@ -51641,12 +51641,12 @@
       <c r="K917" t="inlineStr"/>
       <c r="L917" t="inlineStr">
         <is>
-          <t>CHEBI:32120</t>
+          <t>CHEBI:59560</t>
         </is>
       </c>
       <c r="M917" t="inlineStr">
         <is>
-          <t>sapropterin dihydrochloride</t>
+          <t>Sapropterin</t>
         </is>
       </c>
       <c r="N917" t="inlineStr"/>
@@ -52201,12 +52201,12 @@
       <c r="K927" t="inlineStr"/>
       <c r="L927" t="inlineStr">
         <is>
-          <t>UNII:P188ANX8CK</t>
+          <t>UNII:5384HK7574</t>
         </is>
       </c>
       <c r="M927" t="inlineStr">
         <is>
-          <t>Trastuzumab</t>
+          <t>Trastuzumab deruxtecan</t>
         </is>
       </c>
       <c r="N927" t="inlineStr"/>
@@ -53209,12 +53209,12 @@
       <c r="K945" t="inlineStr"/>
       <c r="L945" t="inlineStr">
         <is>
-          <t>CHEBI:3755</t>
+          <t>CHEBI:47780</t>
         </is>
       </c>
       <c r="M945" t="inlineStr">
         <is>
-          <t>clomipramine hydrochloride</t>
+          <t>Clomipramine</t>
         </is>
       </c>
       <c r="N945" t="inlineStr"/>
@@ -53713,12 +53713,12 @@
       <c r="K954" t="inlineStr"/>
       <c r="L954" t="inlineStr">
         <is>
-          <t>CHEBI:7963</t>
+          <t>CHEBI:18208</t>
         </is>
       </c>
       <c r="M954" t="inlineStr">
         <is>
-          <t>benzylpenicillin potassium</t>
+          <t>Penicillin G</t>
         </is>
       </c>
       <c r="N954" t="inlineStr"/>
@@ -53769,12 +53769,12 @@
       <c r="K955" t="inlineStr"/>
       <c r="L955" t="inlineStr">
         <is>
-          <t>CHEBI:53509</t>
+          <t>CHEBI:114785</t>
         </is>
       </c>
       <c r="M955" t="inlineStr">
         <is>
-          <t>Tarceva</t>
+          <t>Erlotinib</t>
         </is>
       </c>
       <c r="N955" t="inlineStr"/>
@@ -53881,12 +53881,12 @@
       <c r="K957" t="inlineStr"/>
       <c r="L957" t="inlineStr">
         <is>
-          <t>CHEBI:94758</t>
+          <t>CHEBI:32107</t>
         </is>
       </c>
       <c r="M957" t="inlineStr">
         <is>
-          <t>Roxane</t>
+          <t>TZU 0460</t>
         </is>
       </c>
       <c r="N957" t="inlineStr"/>
@@ -53937,12 +53937,12 @@
       <c r="K958" t="inlineStr"/>
       <c r="L958" t="inlineStr">
         <is>
-          <t>CHEBI:5091</t>
+          <t>CHEBI:75984</t>
         </is>
       </c>
       <c r="M958" t="inlineStr">
         <is>
-          <t>flecainide acetate</t>
+          <t>Flecainide</t>
         </is>
       </c>
       <c r="N958" t="inlineStr"/>
@@ -54721,12 +54721,12 @@
       <c r="K972" t="inlineStr"/>
       <c r="L972" t="inlineStr">
         <is>
-          <t>CHEBI:31934</t>
+          <t>CHEBI:50275</t>
         </is>
       </c>
       <c r="M972" t="inlineStr">
         <is>
-          <t>Omeprazole sodium</t>
+          <t>Esomeprazole</t>
         </is>
       </c>
       <c r="N972" t="inlineStr"/>
@@ -55169,12 +55169,12 @@
       <c r="K980" t="inlineStr"/>
       <c r="L980" t="inlineStr">
         <is>
-          <t>CHEBI:5781</t>
+          <t>CHEBI:17650</t>
         </is>
       </c>
       <c r="M980" t="inlineStr">
         <is>
-          <t>cortisol sodium phosphate</t>
+          <t>Hydrocortisone</t>
         </is>
       </c>
       <c r="N980" t="inlineStr"/>
@@ -55449,12 +55449,12 @@
       <c r="K985" t="inlineStr"/>
       <c r="L985" t="inlineStr">
         <is>
-          <t>CHEBI:6770</t>
+          <t>CHEBI:43968</t>
         </is>
       </c>
       <c r="M985" t="inlineStr">
         <is>
-          <t>MEROPENEM</t>
+          <t>Meropenem</t>
         </is>
       </c>
       <c r="N985" t="inlineStr"/>
@@ -55673,12 +55673,12 @@
       <c r="K989" t="inlineStr"/>
       <c r="L989" t="inlineStr">
         <is>
-          <t>CHEBI:4667</t>
+          <t>CHEBI:39867</t>
         </is>
       </c>
       <c r="M989" t="inlineStr">
         <is>
-          <t>valproate semisodium</t>
+          <t>Valproic acid</t>
         </is>
       </c>
       <c r="N989" t="inlineStr"/>
@@ -55785,12 +55785,12 @@
       <c r="K991" t="inlineStr"/>
       <c r="L991" t="inlineStr">
         <is>
-          <t>CHEBI:4026</t>
+          <t>CHEBI:4027</t>
         </is>
       </c>
       <c r="M991" t="inlineStr">
         <is>
-          <t>cyclophosphamide hydrate</t>
+          <t>Cyclophosphamide</t>
         </is>
       </c>
       <c r="N991" t="inlineStr"/>
@@ -56065,12 +56065,12 @@
       <c r="K996" t="inlineStr"/>
       <c r="L996" t="inlineStr">
         <is>
-          <t>CHEBI:3514</t>
+          <t>CHEBI:29007</t>
         </is>
       </c>
       <c r="M996" t="inlineStr">
         <is>
-          <t>Ceftriaxone disodium salt hemiheptahydrate</t>
+          <t>Ceftriaxone</t>
         </is>
       </c>
       <c r="N996" t="inlineStr"/>
@@ -56905,12 +56905,12 @@
       <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>CHEBI:3498</t>
+          <t>CHEBI:204928</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr">
         <is>
-          <t>cefotaxime sodium</t>
+          <t>Cefotaxime</t>
         </is>
       </c>
       <c r="N1011" t="inlineStr"/>
@@ -57913,12 +57913,12 @@
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>CHEBI:31934</t>
+          <t>CHEBI:6909</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr">
         <is>
-          <t>Omeprazole sodium</t>
+          <t>Metronidazole</t>
         </is>
       </c>
       <c r="N1029" t="inlineStr"/>
@@ -57969,12 +57969,12 @@
       <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>CHEBI:31281</t>
+          <t>CHEBI:71204</t>
         </is>
       </c>
       <c r="M1030" t="inlineStr">
         <is>
-          <t>bepotastine besylate</t>
+          <t>bepotastine</t>
         </is>
       </c>
       <c r="N1030" t="inlineStr"/>
@@ -59169,12 +59169,12 @@
       <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>CHEBI:32296</t>
+          <t>CHEBI:480999</t>
         </is>
       </c>
       <c r="M1052" t="inlineStr">
         <is>
-          <t>vinorelbine L-tartrate</t>
+          <t>Vinorelbine</t>
         </is>
       </c>
       <c r="N1052" t="inlineStr"/>
@@ -59277,12 +59277,12 @@
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>CHEBI:4462</t>
+          <t>PUBCHEM.COMPOUND:23667621</t>
         </is>
       </c>
       <c r="M1054" t="inlineStr">
         <is>
-          <t>dexamethasone sodium phosphate</t>
+          <t>DEXAMETHASONE SODIUM PHOSPHATE</t>
         </is>
       </c>
       <c r="N1054" t="inlineStr"/>
@@ -59385,12 +59385,12 @@
       <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>CHEBI:59936</t>
+          <t>CHEBI:100241</t>
         </is>
       </c>
       <c r="M1056" t="inlineStr">
         <is>
-          <t>ciprofloxacin hydrochloride hydrate</t>
+          <t>Ciprofloxacin</t>
         </is>
       </c>
       <c r="N1056" t="inlineStr"/>
@@ -59439,12 +59439,12 @@
       <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>UNII:1RXS4UE564</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr">
         <is>
-          <t>Alteplase</t>
+          <t>['Error']</t>
         </is>
       </c>
       <c r="N1057" t="inlineStr"/>
@@ -59547,12 +59547,12 @@
       <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>CHEBI:31934</t>
+          <t>CHEBI:2676</t>
         </is>
       </c>
       <c r="M1059" t="inlineStr">
         <is>
-          <t>Omeprazole sodium</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="N1059" t="inlineStr"/>
@@ -59763,12 +59763,12 @@
       <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>CHEBI:6770</t>
+          <t>CHEBI:43968</t>
         </is>
       </c>
       <c r="M1063" t="inlineStr">
         <is>
-          <t>MEROPENEM</t>
+          <t>Meropenem</t>
         </is>
       </c>
       <c r="N1063" t="inlineStr"/>
@@ -59817,12 +59817,12 @@
       <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>CHEBI:31368</t>
+          <t>CHEBI:478164</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr">
         <is>
-          <t>cefepime hydrochloride</t>
+          <t>Cefepime</t>
         </is>
       </c>
       <c r="N1064" t="inlineStr"/>
@@ -59871,12 +59871,12 @@
       <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>PUBCHEM.COMPOUND:20832750</t>
+          <t>PUBCHEM.COMPOUND:131750191</t>
         </is>
       </c>
       <c r="M1065" t="inlineStr">
         <is>
-          <t>Bleomycin hydrochloride</t>
+          <t>Bleomycin Hydrochloride</t>
         </is>
       </c>
       <c r="N1065" t="inlineStr"/>
@@ -60141,12 +60141,12 @@
       <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>CHEBI:2361</t>
+          <t>CHEBI:421707</t>
         </is>
       </c>
       <c r="M1070" t="inlineStr">
         <is>
-          <t>abacavir sulfate</t>
+          <t>Abacavir</t>
         </is>
       </c>
       <c r="N1070" t="inlineStr"/>
